--- a/doc/examples/forecasting/forecast-with-missing-data.xlsx
+++ b/doc/examples/forecasting/forecast-with-missing-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\enterprise\doc\examples\forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\jdetaeye\workspace\frepple-community\doc\examples\forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3231A361-6AB3-4D90-8880-6B08640055CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCB7DCD-2F51-43E8-A67E-4737B9B5912C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="887" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales order" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sales order'!$A:$G</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">supplier!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -306,7 +319,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{85BD55E1-E3BA-4AF3-B9FA-3E656BAF008C}">
       <text>
         <r>
           <rPr>
@@ -320,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{369BC72F-6B71-4D61-AAD5-329593455CCA}">
       <text>
         <r>
           <rPr>
@@ -334,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{ADFD17F0-4F6E-412A-859C-38EB260FC63F}">
       <text>
         <r>
           <rPr>
@@ -348,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{24144D22-0E6B-46EC-8EFC-E8A37F6FDBA2}">
       <text>
         <r>
           <rPr>
@@ -362,26 +375,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Read only</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="320">
   <si>
     <t>Name</t>
   </si>
@@ -413,12 +412,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Last Modified</t>
-  </si>
-  <si>
     <t>item A in week 20 W23</t>
   </si>
   <si>
@@ -716,15 +709,9 @@
     <t>Value</t>
   </si>
   <si>
-    <t>allowsplits</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>Controls whether a sales order or forecast can be split across multiple manufacturing orders during planning. Default: true</t>
-  </si>
-  <si>
     <t>currency</t>
   </si>
   <si>
@@ -1227,6 +1214,132 @@
   </si>
   <si>
     <t>Start Date</t>
+  </si>
+  <si>
+    <t>forecastbaselinevalue</t>
+  </si>
+  <si>
+    <t>forecast baseline value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastbaselinevalue, forecastbaseline * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastbaseline := newvalue /cost, forecastbaselinevalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecastconsumedvalue</t>
+  </si>
+  <si>
+    <t>forecast consumed value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastconsumedvalue, forecastconsumed * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastconsumed := newvalue / cost, forecastconsumedvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecastnetvalue</t>
+  </si>
+  <si>
+    <t>forecast net value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastnetvalue, forecastnet * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastnet := newvalue /cost, forecastnetvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecastoverridevalue</t>
+  </si>
+  <si>
+    <t>forecast override value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastoverridevalue, if(forecastoverride == -1, -1, forecastoverride * cost))</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastoverride := if(newvalue == -1, -1, newvalue / cost), forecastoverridevalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecastplannedvalue</t>
+  </si>
+  <si>
+    <t>planned forecast value</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastplannedvalue, forecastplanned * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastplanned := newvalue /cost, forecastplannedvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecasttotalvalue</t>
+  </si>
+  <si>
+    <t>forecast total value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecasttotalvalue, forecasttotal * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecasttotal:= newvalue /cost, forecasttotalvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>Indicates gaps in the sales history</t>
+  </si>
+  <si>
+    <t>ordersadjustmentvalue</t>
+  </si>
+  <si>
+    <t>orders adjustment value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, ordersadjustmentvalue, ordersadjustment * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, ordersadjustment := newvalue /cost, ordersadjustmentvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>ordersopenvalue</t>
+  </si>
+  <si>
+    <t>orders open value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, ordersopenvalue, ordersopen * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, ordersopen := newvalue /cost, ordersopenvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>ordersplannedvalue</t>
+  </si>
+  <si>
+    <t>planned orders value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, ordersplannedvalue, ordersplanned * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, ordersplanned := newvalue /cost, ordersplannedvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>orderstotalvalue</t>
+  </si>
+  <si>
+    <t>orders total value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, orderstotalvalue, orderstotal * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, orderstotal := newvalue /cost, orderstotalvalue := newvalue)</t>
   </si>
 </sst>
 </file>
@@ -1282,10 +1395,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1597,16 +1709,16 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,1358 +1741,1358 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
         <v>43990</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
         <v>43997</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
         <v>44004</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
         <v>44011</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
         <v>44018</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
         <v>44025</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
         <v>44032</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
         <v>44039</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
         <v>44046</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2">
         <v>44053</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
         <v>44060</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2">
         <v>44067</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
         <v>44074</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
         <v>44081</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2">
         <v>44088</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G16">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2">
         <v>44095</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2">
         <v>44102</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2">
         <v>44109</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2">
         <v>44116</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G20">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2">
         <v>44123</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G21">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2">
         <v>44130</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2">
         <v>44137</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G23">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2">
         <v>44144</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G24">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2">
         <v>44179</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2">
         <v>44186</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G26">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2">
         <v>44193</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G27">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="3">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2">
         <v>43990</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="3">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2">
         <v>43997</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="3">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2">
         <v>44004</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G30">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="3">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2">
         <v>44011</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="3">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2">
         <v>44018</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G32">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="3">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2">
         <v>44025</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2">
         <v>44032</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G34">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="3">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2">
         <v>44039</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G35">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="3">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2">
         <v>44046</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G36">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="3">
+        <v>13</v>
+      </c>
+      <c r="E37" s="2">
         <v>44053</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G37">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="3">
+        <v>13</v>
+      </c>
+      <c r="E38" s="2">
         <v>44060</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="3">
+        <v>13</v>
+      </c>
+      <c r="E39" s="2">
         <v>44067</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G39">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="3">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2">
         <v>44074</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G40">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="3">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2">
         <v>44081</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G41">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="3">
+        <v>13</v>
+      </c>
+      <c r="E42" s="2">
         <v>44088</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G42">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="3">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2">
         <v>44095</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G43">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="3">
+        <v>13</v>
+      </c>
+      <c r="E44" s="2">
         <v>44102</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G44">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="3">
+        <v>13</v>
+      </c>
+      <c r="E45" s="2">
         <v>44109</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G45">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="3">
+        <v>13</v>
+      </c>
+      <c r="E46" s="2">
         <v>44116</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G46">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="3">
+        <v>13</v>
+      </c>
+      <c r="E47" s="2">
         <v>44123</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="3">
+        <v>13</v>
+      </c>
+      <c r="E48" s="2">
         <v>44130</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G48">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="3">
+        <v>13</v>
+      </c>
+      <c r="E49" s="2">
         <v>44137</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G49">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="3">
+        <v>13</v>
+      </c>
+      <c r="E50" s="2">
         <v>44144</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G50">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="3">
+        <v>13</v>
+      </c>
+      <c r="E51" s="2">
         <v>44179</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="3">
+        <v>13</v>
+      </c>
+      <c r="E52" s="2">
         <v>44186</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="3">
+        <v>13</v>
+      </c>
+      <c r="E53" s="2">
         <v>44193</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="3">
+        <v>13</v>
+      </c>
+      <c r="E54" s="2">
         <v>44067</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="3">
+        <v>13</v>
+      </c>
+      <c r="E55" s="2">
         <v>44102</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="3">
+        <v>13</v>
+      </c>
+      <c r="E56" s="2">
         <v>44109</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="3">
+        <v>13</v>
+      </c>
+      <c r="E57" s="2">
         <v>44116</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="3">
+        <v>13</v>
+      </c>
+      <c r="E58" s="2">
         <v>44172</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="3">
+        <v>13</v>
+      </c>
+      <c r="E59" s="2">
         <v>44179</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="3">
+        <v>13</v>
+      </c>
+      <c r="E60" s="2">
         <v>44193</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2995,788 +3107,777 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="182.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="182.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>112</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>117</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>118</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>120</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>121</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>124</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>126</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>127</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>129</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>130</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>132</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>133</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>135</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>136</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>138</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>139</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
         <v>141</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>142</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>144</v>
       </c>
-      <c r="B13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>146</v>
       </c>
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
         <v>148</v>
       </c>
-      <c r="B15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>150</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>151</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>153</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>154</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s">
         <v>156</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>157</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
         <v>159</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" t="s">
         <v>136</v>
       </c>
-      <c r="C19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>185</v>
       </c>
-      <c r="B29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>187</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
         <v>188</v>
       </c>
-      <c r="C30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>189</v>
       </c>
-      <c r="B31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>191</v>
       </c>
-      <c r="B32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>193</v>
       </c>
-      <c r="B33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
         <v>195</v>
       </c>
-      <c r="B34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
         <v>197</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>198</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
         <v>200</v>
       </c>
-      <c r="B36" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" t="s">
         <v>202</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>203</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
         <v>205</v>
       </c>
-      <c r="B38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>207</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>208</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>210</v>
       </c>
-      <c r="B40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>211</v>
       </c>
-      <c r="B41" t="s">
-        <v>212</v>
-      </c>
-      <c r="C41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>214</v>
-      </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>215</v>
       </c>
-      <c r="B43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
         <v>216</v>
       </c>
-      <c r="B44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>217</v>
       </c>
-      <c r="B45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
         <v>219</v>
       </c>
-      <c r="B46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="s">
         <v>221</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>222</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="C48" t="s">
         <v>224</v>
       </c>
-      <c r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>226</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>227</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
         <v>229</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>230</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>232</v>
       </c>
-      <c r="B51" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>234</v>
       </c>
-      <c r="B52" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>236</v>
       </c>
-      <c r="B53" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C54" t="s">
         <v>238</v>
       </c>
-      <c r="B54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
         <v>240</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>241</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>243</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>244</v>
       </c>
-      <c r="C56" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" t="s">
         <v>246</v>
       </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>247</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
         <v>249</v>
       </c>
-      <c r="B58" t="s">
-        <v>222</v>
-      </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" t="s">
         <v>251</v>
       </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>252</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="C60" t="s">
         <v>254</v>
       </c>
-      <c r="B60" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="C61" t="s">
         <v>256</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>257</v>
       </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>259</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="C63" t="s">
         <v>261</v>
       </c>
-      <c r="B63" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" t="s">
         <v>263</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>264</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>266</v>
       </c>
-      <c r="B65" t="s">
-        <v>222</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="C66" t="s">
         <v>268</v>
       </c>
-      <c r="B66" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" t="s">
         <v>270</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>271</v>
       </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>273</v>
       </c>
-      <c r="B68" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>275</v>
-      </c>
-      <c r="B69" t="s">
-        <v>112</v>
-      </c>
-      <c r="C69" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>277</v>
-      </c>
-      <c r="B70" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" t="s">
-        <v>278</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A1:C1048575" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3785,20 +3886,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3809,89 +3910,89 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
         <v>44151</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>44158</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
         <v>44158</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>44165</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
         <v>44165</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>44172</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
         <v>44172</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>44179</v>
       </c>
       <c r="F5">
@@ -3913,9 +4014,9 @@
       <selection activeCell="D1" sqref="D1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3923,42 +4024,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -3979,16 +4080,16 @@
       <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4005,16 +4106,16 @@
       <selection activeCell="B1" sqref="B1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4031,16 +4132,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4054,33 +4155,33 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -4092,21 +4193,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -4118,21 +4219,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -4159,16 +4260,16 @@
       <selection activeCell="B1" sqref="B1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4185,12 +4286,12 @@
       <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4198,21 +4299,21 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2">
         <f>2*24*3600</f>
@@ -4222,12 +4323,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D4" si="0">2*24*3600</f>
@@ -4237,12 +4338,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -4261,35 +4362,47 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="77.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="93" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>93</v>
@@ -4298,86 +4411,406 @@
         <v>94</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>292</v>
+      </c>
+      <c r="L5" t="s">
+        <v>293</v>
+      </c>
+      <c r="M5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>297</v>
+      </c>
+      <c r="L6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B7" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C7" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D7" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E7" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
         <v>102</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>301</v>
+      </c>
+      <c r="L8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>103</v>
       </c>
-      <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" t="b">
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="O2" s="3">
-        <v>44225.493272575819</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3">
+      <c r="K10" t="s">
+        <v>306</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" t="b">
         <v>0</v>
       </c>
-      <c r="O3" s="3">
-        <v>44225.516502607097</v>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>310</v>
+      </c>
+      <c r="L11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>314</v>
+      </c>
+      <c r="L12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>318</v>
+      </c>
+      <c r="L13" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
